--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Psen1-Ncstn.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Psen1-Ncstn.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>16.1662981534737</v>
+        <v>16.38931533333333</v>
       </c>
       <c r="H2">
-        <v>16.1662981534737</v>
+        <v>49.167946</v>
       </c>
       <c r="I2">
-        <v>0.1271781819116091</v>
+        <v>0.1272611691689642</v>
       </c>
       <c r="J2">
-        <v>0.1271781819116091</v>
+        <v>0.1272611691689643</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>24.3960536932213</v>
+        <v>24.455837</v>
       </c>
       <c r="N2">
-        <v>24.3960536932213</v>
+        <v>73.36751100000001</v>
       </c>
       <c r="O2">
-        <v>0.1567821164285728</v>
+        <v>0.1553502885444182</v>
       </c>
       <c r="P2">
-        <v>0.1567821164285728</v>
+        <v>0.1553502885444182</v>
       </c>
       <c r="Q2">
-        <v>394.3938777727687</v>
+        <v>400.8144243336007</v>
       </c>
       <c r="R2">
-        <v>394.3938777727687</v>
+        <v>3607.329819002407</v>
       </c>
       <c r="S2">
-        <v>0.0199392645236401</v>
+        <v>0.01977005935089861</v>
       </c>
       <c r="T2">
-        <v>0.0199392645236401</v>
+        <v>0.01977005935089862</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>16.1662981534737</v>
+        <v>16.38931533333333</v>
       </c>
       <c r="H3">
-        <v>16.1662981534737</v>
+        <v>49.167946</v>
       </c>
       <c r="I3">
-        <v>0.1271781819116091</v>
+        <v>0.1272611691689642</v>
       </c>
       <c r="J3">
-        <v>0.1271781819116091</v>
+        <v>0.1272611691689643</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>33.2826620823591</v>
+        <v>33.36516466666667</v>
       </c>
       <c r="N3">
-        <v>33.2826620823591</v>
+        <v>100.095494</v>
       </c>
       <c r="O3">
-        <v>0.2138922248354937</v>
+        <v>0.2119448194841458</v>
       </c>
       <c r="P3">
-        <v>0.2138922248354937</v>
+        <v>0.2119448194841458</v>
       </c>
       <c r="Q3">
-        <v>538.0574385647311</v>
+        <v>546.8322048705915</v>
       </c>
       <c r="R3">
-        <v>538.0574385647311</v>
+        <v>4921.489843835324</v>
       </c>
       <c r="S3">
-        <v>0.02720242427960721</v>
+        <v>0.02697234552685747</v>
       </c>
       <c r="T3">
-        <v>0.02720242427960721</v>
+        <v>0.02697234552685747</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>16.1662981534737</v>
+        <v>16.38931533333333</v>
       </c>
       <c r="H4">
-        <v>16.1662981534737</v>
+        <v>49.167946</v>
       </c>
       <c r="I4">
-        <v>0.1271781819116091</v>
+        <v>0.1272611691689642</v>
       </c>
       <c r="J4">
-        <v>0.1271781819116091</v>
+        <v>0.1272611691689643</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>42.9802676779049</v>
+        <v>43.331795</v>
       </c>
       <c r="N4">
-        <v>42.9802676779049</v>
+        <v>129.995385</v>
       </c>
       <c r="O4">
-        <v>0.2762142359557472</v>
+        <v>0.2752556314632608</v>
       </c>
       <c r="P4">
-        <v>0.2762142359557472</v>
+        <v>0.2752556314632608</v>
       </c>
       <c r="Q4">
-        <v>694.8318219971193</v>
+        <v>710.1784522143566</v>
       </c>
       <c r="R4">
-        <v>694.8318219971193</v>
+        <v>6391.60606992921</v>
       </c>
       <c r="S4">
-        <v>0.03512842434695613</v>
+        <v>0.03502935348035611</v>
       </c>
       <c r="T4">
-        <v>0.03512842434695613</v>
+        <v>0.03502935348035611</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>16.1662981534737</v>
+        <v>16.38931533333333</v>
       </c>
       <c r="H5">
-        <v>16.1662981534737</v>
+        <v>49.167946</v>
       </c>
       <c r="I5">
-        <v>0.1271781819116091</v>
+        <v>0.1272611691689642</v>
       </c>
       <c r="J5">
-        <v>0.1271781819116091</v>
+        <v>0.1272611691689643</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>45.5418339071618</v>
+        <v>45.91844699999999</v>
       </c>
       <c r="N5">
-        <v>45.5418339071618</v>
+        <v>137.755341</v>
       </c>
       <c r="O5">
-        <v>0.2926762334511228</v>
+        <v>0.2916867654524183</v>
       </c>
       <c r="P5">
-        <v>0.2926762334511228</v>
+        <v>0.2916867654524183</v>
       </c>
       <c r="Q5">
-        <v>736.2428653991558</v>
+        <v>752.5719074999538</v>
       </c>
       <c r="R5">
-        <v>736.2428653991558</v>
+        <v>6773.147167499586</v>
       </c>
       <c r="S5">
-        <v>0.03722203125905146</v>
+        <v>0.0371203988025882</v>
       </c>
       <c r="T5">
-        <v>0.03722203125905146</v>
+        <v>0.0371203988025882</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>16.1662981534737</v>
+        <v>16.38931533333333</v>
       </c>
       <c r="H6">
-        <v>16.1662981534737</v>
+        <v>49.167946</v>
       </c>
       <c r="I6">
-        <v>0.1271781819116091</v>
+        <v>0.1272611691689642</v>
       </c>
       <c r="J6">
-        <v>0.1271781819116091</v>
+        <v>0.1272611691689643</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>9.40400702208618</v>
+        <v>10.35258366666667</v>
       </c>
       <c r="N6">
-        <v>9.40400702208618</v>
+        <v>31.057751</v>
       </c>
       <c r="O6">
-        <v>0.06043518932906362</v>
+        <v>0.06576249505575693</v>
       </c>
       <c r="P6">
-        <v>0.06043518932906362</v>
+        <v>0.06576249505575693</v>
       </c>
       <c r="Q6">
-        <v>152.0279813564055</v>
+        <v>169.6717582277162</v>
       </c>
       <c r="R6">
-        <v>152.0279813564055</v>
+        <v>1527.045824049446</v>
       </c>
       <c r="S6">
-        <v>0.007686037502354188</v>
+        <v>0.008369012008263857</v>
       </c>
       <c r="T6">
-        <v>0.007686037502354188</v>
+        <v>0.008369012008263859</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>23.0370462263</v>
+        <v>23.071008</v>
       </c>
       <c r="H7">
-        <v>23.0370462263</v>
+        <v>69.213024</v>
       </c>
       <c r="I7">
-        <v>0.1812294705850759</v>
+        <v>0.1791437526383466</v>
       </c>
       <c r="J7">
-        <v>0.1812294705850759</v>
+        <v>0.1791437526383466</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>24.3960536932213</v>
+        <v>24.455837</v>
       </c>
       <c r="N7">
-        <v>24.3960536932213</v>
+        <v>73.36751100000001</v>
       </c>
       <c r="O7">
-        <v>0.1567821164285728</v>
+        <v>0.1553502885444182</v>
       </c>
       <c r="P7">
-        <v>0.1567821164285728</v>
+        <v>0.1553502885444182</v>
       </c>
       <c r="Q7">
-        <v>562.0130166700359</v>
+        <v>564.2208110736962</v>
       </c>
       <c r="R7">
-        <v>562.0130166700359</v>
+        <v>5077.987299663265</v>
       </c>
       <c r="S7">
-        <v>0.02841353995755797</v>
+        <v>0.02783003366329703</v>
       </c>
       <c r="T7">
-        <v>0.02841353995755797</v>
+        <v>0.02783003366329703</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>23.0370462263</v>
+        <v>23.071008</v>
       </c>
       <c r="H8">
-        <v>23.0370462263</v>
+        <v>69.213024</v>
       </c>
       <c r="I8">
-        <v>0.1812294705850759</v>
+        <v>0.1791437526383466</v>
       </c>
       <c r="J8">
-        <v>0.1812294705850759</v>
+        <v>0.1791437526383466</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>33.2826620823591</v>
+        <v>33.36516466666667</v>
       </c>
       <c r="N8">
-        <v>33.2826620823591</v>
+        <v>100.095494</v>
       </c>
       <c r="O8">
-        <v>0.2138922248354937</v>
+        <v>0.2119448194841458</v>
       </c>
       <c r="P8">
-        <v>0.2138922248354937</v>
+        <v>0.2119448194841458</v>
       </c>
       <c r="Q8">
-        <v>766.7342249256288</v>
+        <v>769.767980945984</v>
       </c>
       <c r="R8">
-        <v>766.7342249256288</v>
+        <v>6927.911828513857</v>
       </c>
       <c r="S8">
-        <v>0.03876357466920054</v>
+        <v>0.03796859031464684</v>
       </c>
       <c r="T8">
-        <v>0.03876357466920054</v>
+        <v>0.03796859031464684</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>23.0370462263</v>
+        <v>23.071008</v>
       </c>
       <c r="H9">
-        <v>23.0370462263</v>
+        <v>69.213024</v>
       </c>
       <c r="I9">
-        <v>0.1812294705850759</v>
+        <v>0.1791437526383466</v>
       </c>
       <c r="J9">
-        <v>0.1812294705850759</v>
+        <v>0.1791437526383466</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>42.9802676779049</v>
+        <v>43.331795</v>
       </c>
       <c r="N9">
-        <v>42.9802676779049</v>
+        <v>129.995385</v>
       </c>
       <c r="O9">
-        <v>0.2762142359557472</v>
+        <v>0.2752556314632608</v>
       </c>
       <c r="P9">
-        <v>0.2762142359557472</v>
+        <v>0.2752556314632608</v>
       </c>
       <c r="Q9">
-        <v>990.1384133146429</v>
+        <v>999.7081890993601</v>
       </c>
       <c r="R9">
-        <v>990.1384133146429</v>
+        <v>8997.373701894241</v>
       </c>
       <c r="S9">
-        <v>0.0500581597503213</v>
+        <v>0.04931032675516629</v>
       </c>
       <c r="T9">
-        <v>0.0500581597503213</v>
+        <v>0.04931032675516629</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>23.0370462263</v>
+        <v>23.071008</v>
       </c>
       <c r="H10">
-        <v>23.0370462263</v>
+        <v>69.213024</v>
       </c>
       <c r="I10">
-        <v>0.1812294705850759</v>
+        <v>0.1791437526383466</v>
       </c>
       <c r="J10">
-        <v>0.1812294705850759</v>
+        <v>0.1791437526383466</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>45.5418339071618</v>
+        <v>45.91844699999999</v>
       </c>
       <c r="N10">
-        <v>45.5418339071618</v>
+        <v>137.755341</v>
       </c>
       <c r="O10">
-        <v>0.2926762334511228</v>
+        <v>0.2916867654524183</v>
       </c>
       <c r="P10">
-        <v>0.2926762334511228</v>
+        <v>0.2916867654524183</v>
       </c>
       <c r="Q10">
-        <v>1049.149332949763</v>
+        <v>1059.384858084576</v>
       </c>
       <c r="R10">
-        <v>1049.149332949763</v>
+        <v>9534.463722761184</v>
       </c>
       <c r="S10">
-        <v>0.05304155884118106</v>
+        <v>0.05225386175808745</v>
       </c>
       <c r="T10">
-        <v>0.05304155884118106</v>
+        <v>0.05225386175808745</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>23.0370462263</v>
+        <v>23.071008</v>
       </c>
       <c r="H11">
-        <v>23.0370462263</v>
+        <v>69.213024</v>
       </c>
       <c r="I11">
-        <v>0.1812294705850759</v>
+        <v>0.1791437526383466</v>
       </c>
       <c r="J11">
-        <v>0.1812294705850759</v>
+        <v>0.1791437526383466</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>9.40400702208618</v>
+        <v>10.35258366666667</v>
       </c>
       <c r="N11">
-        <v>9.40400702208618</v>
+        <v>31.057751</v>
       </c>
       <c r="O11">
-        <v>0.06043518932906362</v>
+        <v>0.06576249505575693</v>
       </c>
       <c r="P11">
-        <v>0.06043518932906362</v>
+        <v>0.06576249505575693</v>
       </c>
       <c r="Q11">
-        <v>216.6405444802491</v>
+        <v>238.844540594336</v>
       </c>
       <c r="R11">
-        <v>216.6405444802491</v>
+        <v>2149.600865349024</v>
       </c>
       <c r="S11">
-        <v>0.01095263736681503</v>
+        <v>0.01178094014714901</v>
       </c>
       <c r="T11">
-        <v>0.01095263736681503</v>
+        <v>0.01178094014714901</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>37.2026539397823</v>
+        <v>37.292974</v>
       </c>
       <c r="H12">
-        <v>37.2026539397823</v>
+        <v>111.878922</v>
       </c>
       <c r="I12">
-        <v>0.2926684789202425</v>
+        <v>0.2895757007844777</v>
       </c>
       <c r="J12">
-        <v>0.2926684789202425</v>
+        <v>0.2895757007844777</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>24.3960536932213</v>
+        <v>24.455837</v>
       </c>
       <c r="N12">
-        <v>24.3960536932213</v>
+        <v>73.36751100000001</v>
       </c>
       <c r="O12">
-        <v>0.1567821164285728</v>
+        <v>0.1553502885444182</v>
       </c>
       <c r="P12">
-        <v>0.1567821164285728</v>
+        <v>0.1553502885444182</v>
       </c>
       <c r="Q12">
-        <v>907.59794304526</v>
+        <v>912.0308933892381</v>
       </c>
       <c r="R12">
-        <v>907.59794304526</v>
+        <v>8208.278040503143</v>
       </c>
       <c r="S12">
-        <v>0.04588518353704675</v>
+        <v>0.04498566867232072</v>
       </c>
       <c r="T12">
-        <v>0.04588518353704675</v>
+        <v>0.04498566867232072</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>37.2026539397823</v>
+        <v>37.292974</v>
       </c>
       <c r="H13">
-        <v>37.2026539397823</v>
+        <v>111.878922</v>
       </c>
       <c r="I13">
-        <v>0.2926684789202425</v>
+        <v>0.2895757007844777</v>
       </c>
       <c r="J13">
-        <v>0.2926684789202425</v>
+        <v>0.2895757007844777</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>33.2826620823591</v>
+        <v>33.36516466666667</v>
       </c>
       <c r="N13">
-        <v>33.2826620823591</v>
+        <v>100.095494</v>
       </c>
       <c r="O13">
-        <v>0.2138922248354937</v>
+        <v>0.2119448194841458</v>
       </c>
       <c r="P13">
-        <v>0.2138922248354937</v>
+        <v>0.2119448194841458</v>
       </c>
       <c r="Q13">
-        <v>1238.20335964472</v>
+        <v>1244.286218419719</v>
       </c>
       <c r="R13">
-        <v>1238.20335964472</v>
+        <v>11198.57596577747</v>
       </c>
       <c r="S13">
-        <v>0.06259951209547047</v>
+        <v>0.06137406962976114</v>
       </c>
       <c r="T13">
-        <v>0.06259951209547047</v>
+        <v>0.06137406962976114</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>37.2026539397823</v>
+        <v>37.292974</v>
       </c>
       <c r="H14">
-        <v>37.2026539397823</v>
+        <v>111.878922</v>
       </c>
       <c r="I14">
-        <v>0.2926684789202425</v>
+        <v>0.2895757007844777</v>
       </c>
       <c r="J14">
-        <v>0.2926684789202425</v>
+        <v>0.2895757007844777</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>42.9802676779049</v>
+        <v>43.331795</v>
       </c>
       <c r="N14">
-        <v>42.9802676779049</v>
+        <v>129.995385</v>
       </c>
       <c r="O14">
-        <v>0.2762142359557472</v>
+        <v>0.2752556314632608</v>
       </c>
       <c r="P14">
-        <v>0.2762142359557472</v>
+        <v>0.2752556314632608</v>
       </c>
       <c r="Q14">
-        <v>1598.980024660307</v>
+        <v>1615.97150430833</v>
       </c>
       <c r="R14">
-        <v>1598.980024660307</v>
+        <v>14543.74353877497</v>
       </c>
       <c r="S14">
-        <v>0.08083920029328549</v>
+        <v>0.07970734237584767</v>
       </c>
       <c r="T14">
-        <v>0.08083920029328549</v>
+        <v>0.07970734237584766</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>37.2026539397823</v>
+        <v>37.292974</v>
       </c>
       <c r="H15">
-        <v>37.2026539397823</v>
+        <v>111.878922</v>
       </c>
       <c r="I15">
-        <v>0.2926684789202425</v>
+        <v>0.2895757007844777</v>
       </c>
       <c r="J15">
-        <v>0.2926684789202425</v>
+        <v>0.2895757007844777</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>45.5418339071618</v>
+        <v>45.91844699999999</v>
       </c>
       <c r="N15">
-        <v>45.5418339071618</v>
+        <v>137.755341</v>
       </c>
       <c r="O15">
-        <v>0.2926762334511228</v>
+        <v>0.2916867654524183</v>
       </c>
       <c r="P15">
-        <v>0.2926762334511228</v>
+        <v>0.2916867654524183</v>
       </c>
       <c r="Q15">
-        <v>1694.277086631184</v>
+        <v>1712.435450091378</v>
       </c>
       <c r="R15">
-        <v>1694.277086631184</v>
+        <v>15411.9190508224</v>
       </c>
       <c r="S15">
-        <v>0.08565710806024592</v>
+        <v>0.0844653995154416</v>
       </c>
       <c r="T15">
-        <v>0.08565710806024592</v>
+        <v>0.0844653995154416</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>37.2026539397823</v>
+        <v>37.292974</v>
       </c>
       <c r="H16">
-        <v>37.2026539397823</v>
+        <v>111.878922</v>
       </c>
       <c r="I16">
-        <v>0.2926684789202425</v>
+        <v>0.2895757007844777</v>
       </c>
       <c r="J16">
-        <v>0.2926684789202425</v>
+        <v>0.2895757007844777</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>9.40400702208618</v>
+        <v>10.35258366666667</v>
       </c>
       <c r="N16">
-        <v>9.40400702208618</v>
+        <v>31.057751</v>
       </c>
       <c r="O16">
-        <v>0.06043518932906362</v>
+        <v>0.06576249505575693</v>
       </c>
       <c r="P16">
-        <v>0.06043518932906362</v>
+        <v>0.06576249505575693</v>
       </c>
       <c r="Q16">
-        <v>349.8540188899548</v>
+        <v>386.0786335138246</v>
       </c>
       <c r="R16">
-        <v>349.8540188899548</v>
+        <v>3474.707701624422</v>
       </c>
       <c r="S16">
-        <v>0.01768747493419392</v>
+        <v>0.01904322059110656</v>
       </c>
       <c r="T16">
-        <v>0.01768747493419392</v>
+        <v>0.01904322059110656</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>43.1249604601643</v>
+        <v>43.83143633333333</v>
       </c>
       <c r="H17">
-        <v>43.1249604601643</v>
+        <v>131.494309</v>
       </c>
       <c r="I17">
-        <v>0.3392585002618698</v>
+        <v>0.3403461170089362</v>
       </c>
       <c r="J17">
-        <v>0.3392585002618698</v>
+        <v>0.3403461170089362</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>24.3960536932213</v>
+        <v>24.455837</v>
       </c>
       <c r="N17">
-        <v>24.3960536932213</v>
+        <v>73.36751100000001</v>
       </c>
       <c r="O17">
-        <v>0.1567821164285728</v>
+        <v>0.1553502885444182</v>
       </c>
       <c r="P17">
-        <v>0.1567821164285728</v>
+        <v>0.1553502885444182</v>
       </c>
       <c r="Q17">
-        <v>1052.078850904214</v>
+        <v>1071.934462443878</v>
       </c>
       <c r="R17">
-        <v>1052.078850904214</v>
+        <v>9647.4101619949</v>
       </c>
       <c r="S17">
-        <v>0.05318966568743946</v>
+        <v>0.05287286748231056</v>
       </c>
       <c r="T17">
-        <v>0.05318966568743946</v>
+        <v>0.05287286748231056</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>43.1249604601643</v>
+        <v>43.83143633333333</v>
       </c>
       <c r="H18">
-        <v>43.1249604601643</v>
+        <v>131.494309</v>
       </c>
       <c r="I18">
-        <v>0.3392585002618698</v>
+        <v>0.3403461170089362</v>
       </c>
       <c r="J18">
-        <v>0.3392585002618698</v>
+        <v>0.3403461170089362</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>33.2826620823591</v>
+        <v>33.36516466666667</v>
       </c>
       <c r="N18">
-        <v>33.2826620823591</v>
+        <v>100.095494</v>
       </c>
       <c r="O18">
-        <v>0.2138922248354937</v>
+        <v>0.2119448194841458</v>
       </c>
       <c r="P18">
-        <v>0.2138922248354937</v>
+        <v>0.2119448194841458</v>
       </c>
       <c r="Q18">
-        <v>1435.313486310746</v>
+        <v>1462.443090838183</v>
       </c>
       <c r="R18">
-        <v>1435.313486310746</v>
+        <v>13161.98781754364</v>
       </c>
       <c r="S18">
-        <v>0.07256475541536428</v>
+        <v>0.07213459633158895</v>
       </c>
       <c r="T18">
-        <v>0.07256475541536428</v>
+        <v>0.07213459633158895</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>43.1249604601643</v>
+        <v>43.83143633333333</v>
       </c>
       <c r="H19">
-        <v>43.1249604601643</v>
+        <v>131.494309</v>
       </c>
       <c r="I19">
-        <v>0.3392585002618698</v>
+        <v>0.3403461170089362</v>
       </c>
       <c r="J19">
-        <v>0.3392585002618698</v>
+        <v>0.3403461170089362</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>42.9802676779049</v>
+        <v>43.331795</v>
       </c>
       <c r="N19">
-        <v>42.9802676779049</v>
+        <v>129.995385</v>
       </c>
       <c r="O19">
-        <v>0.2762142359557472</v>
+        <v>0.2752556314632608</v>
       </c>
       <c r="P19">
-        <v>0.2762142359557472</v>
+        <v>0.2752556314632608</v>
       </c>
       <c r="Q19">
-        <v>1853.522344176926</v>
+        <v>1899.294813751551</v>
       </c>
       <c r="R19">
-        <v>1853.522344176926</v>
+        <v>17093.65332376396</v>
       </c>
       <c r="S19">
-        <v>0.09370802744132505</v>
+        <v>0.09368218535336359</v>
       </c>
       <c r="T19">
-        <v>0.09370802744132505</v>
+        <v>0.09368218535336356</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>43.1249604601643</v>
+        <v>43.83143633333333</v>
       </c>
       <c r="H20">
-        <v>43.1249604601643</v>
+        <v>131.494309</v>
       </c>
       <c r="I20">
-        <v>0.3392585002618698</v>
+        <v>0.3403461170089362</v>
       </c>
       <c r="J20">
-        <v>0.3392585002618698</v>
+        <v>0.3403461170089362</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>45.5418339071618</v>
+        <v>45.91844699999999</v>
       </c>
       <c r="N20">
-        <v>45.5418339071618</v>
+        <v>137.755341</v>
       </c>
       <c r="O20">
-        <v>0.2926762334511228</v>
+        <v>0.2916867654524183</v>
       </c>
       <c r="P20">
-        <v>0.2926762334511228</v>
+        <v>0.2916867654524183</v>
       </c>
       <c r="Q20">
-        <v>1963.989786529723</v>
+        <v>2012.671486206041</v>
       </c>
       <c r="R20">
-        <v>1963.989786529723</v>
+        <v>18114.04337585437</v>
       </c>
       <c r="S20">
-        <v>0.09929290002292082</v>
+        <v>0.09927445800462688</v>
       </c>
       <c r="T20">
-        <v>0.09929290002292082</v>
+        <v>0.09927445800462688</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>43.1249604601643</v>
+        <v>43.83143633333333</v>
       </c>
       <c r="H21">
-        <v>43.1249604601643</v>
+        <v>131.494309</v>
       </c>
       <c r="I21">
-        <v>0.3392585002618698</v>
+        <v>0.3403461170089362</v>
       </c>
       <c r="J21">
-        <v>0.3392585002618698</v>
+        <v>0.3403461170089362</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>9.40400702208618</v>
+        <v>10.35258366666667</v>
       </c>
       <c r="N21">
-        <v>9.40400702208618</v>
+        <v>31.057751</v>
       </c>
       <c r="O21">
-        <v>0.06043518932906362</v>
+        <v>0.06576249505575693</v>
       </c>
       <c r="P21">
-        <v>0.06043518932906362</v>
+        <v>0.06576249505575693</v>
       </c>
       <c r="Q21">
-        <v>405.547430994574</v>
+        <v>453.7686118710065</v>
       </c>
       <c r="R21">
-        <v>405.547430994574</v>
+        <v>4083.917506839059</v>
       </c>
       <c r="S21">
-        <v>0.02050315169482029</v>
+        <v>0.02238200983704624</v>
       </c>
       <c r="T21">
-        <v>0.02050315169482029</v>
+        <v>0.02238200983704624</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>7.58438373012581</v>
+        <v>8.200153666666667</v>
       </c>
       <c r="H22">
-        <v>7.58438373012581</v>
+        <v>24.600461</v>
       </c>
       <c r="I22">
-        <v>0.05966536832120276</v>
+        <v>0.06367326039927532</v>
       </c>
       <c r="J22">
-        <v>0.05966536832120276</v>
+        <v>0.06367326039927532</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>24.3960536932213</v>
+        <v>24.455837</v>
       </c>
       <c r="N22">
-        <v>24.3960536932213</v>
+        <v>73.36751100000001</v>
       </c>
       <c r="O22">
-        <v>0.1567821164285728</v>
+        <v>0.1553502885444182</v>
       </c>
       <c r="P22">
-        <v>0.1567821164285728</v>
+        <v>0.1553502885444182</v>
       </c>
       <c r="Q22">
-        <v>185.0290327101433</v>
+        <v>200.5416214469523</v>
       </c>
       <c r="R22">
-        <v>185.0290327101433</v>
+        <v>1804.874593022571</v>
       </c>
       <c r="S22">
-        <v>0.009354462722888488</v>
+        <v>0.009891659375591298</v>
       </c>
       <c r="T22">
-        <v>0.009354462722888488</v>
+        <v>0.009891659375591298</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>7.58438373012581</v>
+        <v>8.200153666666667</v>
       </c>
       <c r="H23">
-        <v>7.58438373012581</v>
+        <v>24.600461</v>
       </c>
       <c r="I23">
-        <v>0.05966536832120276</v>
+        <v>0.06367326039927532</v>
       </c>
       <c r="J23">
-        <v>0.05966536832120276</v>
+        <v>0.06367326039927532</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>33.2826620823591</v>
+        <v>33.36516466666667</v>
       </c>
       <c r="N23">
-        <v>33.2826620823591</v>
+        <v>100.095494</v>
       </c>
       <c r="O23">
-        <v>0.2138922248354937</v>
+        <v>0.2119448194841458</v>
       </c>
       <c r="P23">
-        <v>0.2138922248354937</v>
+        <v>0.2119448194841458</v>
       </c>
       <c r="Q23">
-        <v>252.4284807927196</v>
+        <v>273.5994773803038</v>
       </c>
       <c r="R23">
-        <v>252.4284807927196</v>
+        <v>2462.395296422734</v>
       </c>
       <c r="S23">
-        <v>0.01276195837585125</v>
+        <v>0.01349521768129142</v>
       </c>
       <c r="T23">
-        <v>0.01276195837585125</v>
+        <v>0.01349521768129142</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>7.58438373012581</v>
+        <v>8.200153666666667</v>
       </c>
       <c r="H24">
-        <v>7.58438373012581</v>
+        <v>24.600461</v>
       </c>
       <c r="I24">
-        <v>0.05966536832120276</v>
+        <v>0.06367326039927532</v>
       </c>
       <c r="J24">
-        <v>0.05966536832120276</v>
+        <v>0.06367326039927532</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>42.9802676779049</v>
+        <v>43.331795</v>
       </c>
       <c r="N24">
-        <v>42.9802676779049</v>
+        <v>129.995385</v>
       </c>
       <c r="O24">
-        <v>0.2762142359557472</v>
+        <v>0.2752556314632608</v>
       </c>
       <c r="P24">
-        <v>0.2762142359557472</v>
+        <v>0.2752556314632608</v>
       </c>
       <c r="Q24">
-        <v>325.9788428927541</v>
+        <v>355.3273776524983</v>
       </c>
       <c r="R24">
-        <v>325.9788428927541</v>
+        <v>3197.946398872485</v>
       </c>
       <c r="S24">
-        <v>0.01648042412385926</v>
+        <v>0.01752642349852717</v>
       </c>
       <c r="T24">
-        <v>0.01648042412385926</v>
+        <v>0.01752642349852716</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>7.58438373012581</v>
+        <v>8.200153666666667</v>
       </c>
       <c r="H25">
-        <v>7.58438373012581</v>
+        <v>24.600461</v>
       </c>
       <c r="I25">
-        <v>0.05966536832120276</v>
+        <v>0.06367326039927532</v>
       </c>
       <c r="J25">
-        <v>0.05966536832120276</v>
+        <v>0.06367326039927532</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>45.5418339071618</v>
+        <v>45.91844699999999</v>
       </c>
       <c r="N25">
-        <v>45.5418339071618</v>
+        <v>137.755341</v>
       </c>
       <c r="O25">
-        <v>0.2926762334511228</v>
+        <v>0.2916867654524183</v>
       </c>
       <c r="P25">
-        <v>0.2926762334511228</v>
+        <v>0.2916867654524183</v>
       </c>
       <c r="Q25">
-        <v>345.40674412557</v>
+        <v>376.538321534689</v>
       </c>
       <c r="R25">
-        <v>345.40674412557</v>
+        <v>3388.844893812201</v>
       </c>
       <c r="S25">
-        <v>0.01746263526772357</v>
+        <v>0.01857264737167417</v>
       </c>
       <c r="T25">
-        <v>0.01746263526772357</v>
+        <v>0.01857264737167417</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>7.58438373012581</v>
+        <v>8.200153666666667</v>
       </c>
       <c r="H26">
-        <v>7.58438373012581</v>
+        <v>24.600461</v>
       </c>
       <c r="I26">
-        <v>0.05966536832120276</v>
+        <v>0.06367326039927532</v>
       </c>
       <c r="J26">
-        <v>0.05966536832120276</v>
+        <v>0.06367326039927532</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>9.40400702208618</v>
+        <v>10.35258366666667</v>
       </c>
       <c r="N26">
-        <v>9.40400702208618</v>
+        <v>31.057751</v>
       </c>
       <c r="O26">
-        <v>0.06043518932906362</v>
+        <v>0.06576249505575693</v>
       </c>
       <c r="P26">
-        <v>0.06043518932906362</v>
+        <v>0.06576249505575693</v>
       </c>
       <c r="Q26">
-        <v>71.3235978562993</v>
+        <v>84.89277691369011</v>
       </c>
       <c r="R26">
-        <v>71.3235978562993</v>
+        <v>764.034992223211</v>
       </c>
       <c r="S26">
-        <v>0.003605887830880204</v>
+        <v>0.004187312472191266</v>
       </c>
       <c r="T26">
-        <v>0.003605887830880204</v>
+        <v>0.004187312472191266</v>
       </c>
     </row>
   </sheetData>
